--- a/500all/speech_level/speeches_CHRG-114hhrg93883.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93883.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,15 +52,9 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Bridenstine. The Subcommittees on the Environment and Oversight will come to order.    Without objection, the Chair is authorized to declare a recess of the Subcommittee at any time. Is there any objection? No objection.    Good morning. Welcome to the today's hearing: ``Bridging the Gap: America's Weather Satellites and Weather Forecasting.'' In front of you are packets containing the written testimony, biographies, and Truth in Testimony disclosures for today's witnesses.    For opening statements, I will recognize myself for five minutes and then I will turn to the Ranking Member and the Chairman on Oversight and the Ranking Member on Oversight.    Good morning, and welcome to the first Environment Subcommittee hearing for the 114th Congress. I want to thank the Full Committee Chairman, Lamar Smith, for his continued leadership.    I would like to congratulate Mr. Loudermilk of Georgia for his assignment as the Chairman of the Oversight Subcommittee. Welcome, and congratulations.    I would like to welcome back the Ranking Member, Ms. Bonamici of Oregon, who I look forward to working with in this Congress, and we have worked very well together in the past and looking forward to another great Congress.    And I would like to congratulate Mr. Beyer of Virginia for his assignment as the Ranking Member of Oversight on this Subcommittee, so congratulations and welcome.    This Committee has held numerous hearings over the years on NOAA's weather satellite programs. Today we continue this oversight by examining the status of NOAA's two primary satellite systems, the Joint Polar Satellite System (JPSS) and the Geostationary Environmental Operational Satellite System (GOES). These satellites collect vital data that is fed into the numerical weather models that are used by meteorologists to make our forecasts, and where I come from in the great State of Oklahoma, critically important data for predicting thunderstorms and tornados.    These two programs comprise the lion's share of funding for NESDIS, the satellite office at NOAA. In the newly released Fiscal Year 2016 budget request, NESDIS accounts for over $2 billion, roughly 40 percent of the NOAA's total budget. Just seven years ago, in 2008, NOAA's budget for satellites was less than $1 billion and was roughly one-quarter of NOAA's overall spending. The NESDIS budget has grown dramatically over the last decade.    In addition, recent reports from the GAO highlight continuing challenges with NOAA's satellite programs. The JPSS program has been plagued with increasing costs and delays, meaning we are probably facing a gap in satellite coverage and data. Estimates of the data gap range from an optimistic three months in some cases to possibly as much as five years, depending on circumstances, in the worst-case scenario outlined by the GAO. With a gap, our ability to predict weather would be dramatically degraded, putting lives and property in danger. This is especially important to me, as my home state is Oklahoma, and we are regularly ravaged by tornados.    Likewise, the GOES program has also experienced increasing lifecycle costs and project delays. With the first satellite launch now pushed back to March 2016, it is important that the program adhere to its already-delayed schedule and prevent another gap in satellite coverage and data.    Given the criticality of JPSS and GOES to our forecasts, it is imperative we ensure these programs receive the adequate support and oversight to avoid further delays and costs overruns.    I hope we can use this hearing to determine how to keep these programs from slipping further and mitigate any possible gaps. However, the failures of these programs to stay on track so far highlight a recent track record for our satellite programs that is less than good, and that the paradigm of owning and operating large monolithic satellites might not be the way forward.    To address this problem, we should look to augment our satellite systems through commercial means, just as the Department of Defense and NASA have done. There is a burgeoning commercial industry that has incredible potential to assist us in providing accurate information to protect American lives and property, disaggregate risk, and save the taxpayers' dollars. We need to have the most resilient space-based weather data architecture ever. Instead of continuing down the path of large government-owned satellites that are prone to cost overruns and delays, as we look forward into the future, we must look outside the box for new methods of providing essential weather data. For example, there are private companies such as PlanetIQ, Spire, GeoOptics, Tempus Global Data and HySpecIQ that have plans to launch constellations of GPS Radio Occultation and Hyperspectral Sounding satellites, two sources of data that can greatly enhance our forecasting ability. Considering options that reduce the burden on massive government satellite systems will allow us to more accurately predict weather in future architecture paradigms.    It has become increasingly difficult to remain optimistic about the future of U.S. weather forecasting, which currently lags behind the UK, Europe, and Canada in terms of accuracy, when we have satellite programs that are plagued with increasing costs and perpetual delays. The prospect of gaps in satellite data are even higher. We need to look for ways to reduce government burdens and eliminate these types of problems while increasing our ability to protect American lives and property.    I look forward to hearing from our witnesses today, and I would like to recognize our Ranking Member, the gentlelady from Oregon, for an opening statement.</t>
   </si>
   <si>
-    <t>Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman, and I want to begin this morning by offering my congratulations to you, Mr. Bridenstine, and to our new Oversight Subcommittee Chairman, Mr. Loudermilk, and to our Oversight Ranking Member, Mr. Beyer. I would also like to extend a warm welcome to all of the new Subcommittee members. We are very fortunate to have the opportunity to serve on the Committee on Science, Space, and Technology and to help shape policies that are critical to the long-term health and prosperity of the Nation.    This morning's hearing is a fitting way to undertake our work. Oversight of NOAA's weather satellites has been a longstanding bipartisan effort of this Committee, spanning many Administrations and sessions of Congress, and it is my hope that this hearing is just the beginning of a productive and bipartisan working relationship.    Now, Mr. Chairman, I doubt that the average American spends much time thinking about the weather satellites managed by NOAA. We might, but I do know that one of the first things many of us do each morning is turn on the television or get on the internet or our favorite app to read the day's weather forecast, and that is because weather is important, affecting everything from our commute to the food on our table. In fact, a 2009 study from the American Meteorological Society stated that U.S. weather forecasts generated $31.5 billion in profits compared to costs of $5.1 billion.    On this Committee, we have worked on finding ways to improve forecasting to protect the American people and the economy from the impacts of severe weather, and I am proud to be working the Chairman on bipartisan legislation, the Weather Forecasting Improvement Act, to advance NOAA's weather research enterprise and improve the products and services offered by the National Weather Service. That effort is important and ongoing.    But meanwhile, any loss of coverage from the polar satellites or the geostationary satellites would have very serious consequences regarding the accuracy and timeliness of our weather forecasts and the capabilities of the Weather Service. Unfortunately, years of trouble and mismanagement in the polar satellite program mean that we will have a gap in coverage within the next decade, with the worst-case scenario being a gap lasting more than five years. In addition, there remains a chance that we face a gap in geostationary satellite coverage as well.    I am certain that we will hear from today's witnesses about progress that has been made in this area, and I am pleased that NOAA and NASA are working to get these programs back on track. I applaud you for your efforts, but we are here today to emphasize the importance of maintaining focus on getting these programs where they need to be to protect American people and our economy. It may be possible to reduce the gap in coverage if there is optimal performance by our current satellites that enables them to greatly exceed their design lives. Additionally, if JPSS-1 and GOES-R launch on time, that may reduce the gap in coverage. It is still important that prudent managers have plans in place in the event of failure, and it is also critical that any gap mitigation strategy is well developed and ready to implement.    Unfortunately, the testimony today from GAO highlights a number of concerns with these contingency plans, specifically with NOAA's plans to respond to the near-term data gap for our polar satellites.    So the questions and issues for our witnesses today are quite simple: How can we best minimize the duration and impact of a gap in the polar program? How can we avoid a gap in the geostationary program? And are plans to fill gaps in coverage appropriately mature, prioritized, and ready to implement?    The American public may not spend much time thinking about where their weather forecasts come from, but they will notice if those forecasts aren't reliable. I am looking forward to hearing from the witnesses from GAO, NOAA and NASA to discuss how their agencies' plans to address the looming gap in satellite coverage.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Good morning, and thank you, Mr. Chairman, and congratulations to you, the Ranking Members of both Subcommittees, and especially thank the members of the Oversight Subcommittee for being here today.    And Mr. Chairman, thank you for holding this hearing today. This is our first joint Environmental and Oversight Committee hearing of the 114th Congress, and I look forward to working with you on the oversight of environmental issues important to all of us.    We are here today to hear from GAO, NOAA, and NASA regarding the progress of NOAA's polar orbiting and geostationary satellite programs, respectively JPSS and GOES-R, as well as how the data collected by weather satellites turns into weather forecasts depended on by so many in the United States, and quite frankly, around the entire world.    GAO recently published a report detailing its concern that the NOAA polar satellite program, JPSS, is facing an unprecedented gap in satellite data. GAO believes that, while JPSS remains within its new lifecycle cost estimate and schedule baselines, recent rises in component costs and technical issues during development increase the likelihood of a near-term data gap. Additionally, although NOAA has recently reduced its estimated potential gap from fifteen to only three months, GAO notes that this assessment was based on incomplete data, such as the risks posed by space debris to satellite hardware. GAO estimates in its report that a data gap may occur earlier and last longer than NOAA anticipates.    Perhaps even more troubling is the potential data gap facing NOAA's GOES-R program, the geostationary satellite system. Since its inception, the GOES-R program has undergone significant increases in cost and reductions in scope, and as GAO's report indicates, NOAA has yet to reverse or even halt this trend. The program was originally planned to launch mid-2012, a date that has now been pushed back to March of 2016. NOAA will retire one of its two operational satellites this year and move its backup satellite into orbit. This means we will face a period of up to 17 months without a backup satellite in orbit.    History has shown us that backups are sometimes necessary to reduce risk to public safety and the economy. In 2008 and 2012, the agency was forced to use backup satellites to cover problems with operational satellites, a solution we may once again find ourselves needing.    When talking about the consequences of a gap in weather data, the first thought in the minds of many is of the devastating effects of extreme weather on the ground. My professional and personal history, however, demands that I discuss another type of weather with which I have quite a bit of experience, and that is aviation weather.    As a private pilot, I know the importance of having accurate and timely weather forecasts to assess flying conditions. Pilots must evaluate conditions on the ground and in the sky throughout the entire flight process, from preflight planning to takeoff and landing. If a pilot does not know which aviation-specific weather conditions to expect, such as embedded thunderstorms, turbulence, and freeze levels, that pilot runs the risk of what we call getting behind the plane. That is a general aviation phrase which means that the plane is responding to the weather and the pilot is responding to the plane, and that is a situation that spells trouble for even the most seasoned pilots.    From this perspective, you can see how a gap in weather data, and consequently less accurate forecasts, could negatively affect not only commercial flight safety, but also the $1.5 trillion in total economic activity that the aviation industry contributes to the national economy.    I hope that today's hearing will shed some light on the complex issue and cost demands facing NOAA's weather satellite programs and that the Subcommittees will walk away better equipped to consider these issues moving forward.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -82,27 +73,18 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman. I would like to add my congratulations to Chairman Bridenstine and Chairman Loudermilk, and we are really looking forward to working with you. I am thrilled to work with Ranking Member Bonamici, and just join myself with all the comments welcoming the various folks.    I am told that historically, this Committee has been a haven of bipartisanship, and in the area of oversight, I really hope that we can work together to improve the quality of government services and protect taxpayer interests, and from my side, I am really looking forward to working with my colleagues on both sides of the aisle.    You know, six years ago I had the remarkable responsibility to lead the transition team for President-Elect Obama at the Department of Commerce. Seventy-seven days, 6:00 in the morning until midnight. I learned to drink coffee for the first time. And I very quickly discovered that the number one problem in the Department of Commerce were the weather satellites, that the things we saw were the cost overruns were many multiples of the original idea. There were no reliable launch dates at all. We couldn't get the equipment to work. The satellites were loaded up with lots and lots of different ideas but none of which could work out. They had this tripartite management system with DoD, NASA and NOAA, and no one was in charge, so it was actually very encouraging to see how far we have come in these six years to have narrowed it to where we are.    But we still had a rocky acquisition with the new series of weather satellites, and the polar orbiting satellites especially have been troubled. Costs have doubled. The money is now buying just two satellites instead of the original intention to acquire six, and the satellites that fly will be less capable because the instruments are going to be reduced from 13 down to just 5, and they are still years behind schedule.    By comparison, the geostationary satellites seem to be models of efficiency, but they too have had trouble too with cost growth and areas of delays. As satellites that have a critical role in weather forecasting, losing coverage of either system could have serious, perhaps catastrophic effects on public safety. Both the Joint Polar Satellite System and the Geostationary Operational Environmental Satellites face this possibility of a gap in coverage, and I hope that if we learn only one thing today, learning how to really address this gap, will help us go forward.    At this point, the only way to avoid the gap is to be very, very lucky, and that is not a really good plan. You know, the problem is that the cost of these satellites distorts all the rest of NOAA's budget and limits the agency's resources for the many, many other important functions that they have--research into weather, oceans, climate science. Surely NOAA understands that the JPSS program represents a failure and an unsustainable model, so going forward, we have to find a more efficient, reliable means to put these instruments into orbit, and Mr. Chairman, I was interested in your alternatives.    GAO has been working with this Committee on these satellite programs for ten years. Without their expert and committed assistance, the Congress and the public would know far less about the risks in these programs. Every GAO product and team has to be measured on its own terms, but this group that has been working on the satellites system is among our very best, and I think the Committee has to be very grateful for their service.    For all the lessons that can be learned from the JPSS and GOES acquisitions, the most important immediate challenge has to be to complete both projects as expeditiously as possible. It is great that we have a pretty reliable launch date, but we have got to get them in orbit, checked out, and bring their data online as quickly as possible, and after years of truly worrisome reports, it appears that NOAA and NASA have good management teams in place and the contractors are now delivering as promised, and the Committee wants to be as helpful and supportive as we can as we reach this last stretch going into launch.    At the same time, the news from GAO that NOAA is not well positioned on the data-gap mitigation plans in place is disappointing, and I hope we learn more today about we are going to do that.    Mr. Chairman, I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you, Mr. Beyer.    If there are other Members who wish to submit additional opening statements, your statements will be added to the record at this point.    At this time I would like to introduce our witnesses. Our first witness today is Mr. David Powner, Director of Information Technology Management Issues at the GAO. Our second witness is Dr. Stephen Volz, Assistant Administrator of the National Environmental Satellite Data and Information Service--NESDIS--at the National Oceanic and Atmospheric Administration--NOAA. Our third witness today is Mr. Steven Clarke, Director of the Joint Agency Satellite Division at the National Aeronautics and Space Administration. We will also be joined for questioning by Dr. Alexander MacDonald, Director of the Earth System Research Laboratory at NOAA, Chief Science Advisor for NOAA's Office of Oceanic and Atmospheric Research, and this year's President of the American Meteorological Society. Finally, we are joined for questioning by Mr. John Murphy, Director of the Office of Science and Technology at the National Weather Service for NOAA. Thank you, gentlemen, for all being here.    Pursuant to the Committee rules, all witnesses will be sworn in before they testify, so if you would please stand up and raise your right hand? Do you solemnly swear or affirm that the testimony that you are about to give will be the truth, the whole truth and nothing but the truth, so help you God? You may be seated. Let the record reflect that the witnesses answered in the affirmative. Thank you.    In order to allow for discussion, please limit your testimony to five minutes for your opening statements. Your entire written statement will be made part of the record.    I now recognize Mr. Powner for five minutes to present his testimony.</t>
   </si>
   <si>
-    <t>Powner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Powner. Chairmen Bridenstine, Loudermilk, Ranking Members Bonamici, Beyer, and Members of the Subcommittees, two years ago, GAO added potential gaps in weather satellite coverage in consultation with this Committee as a high-risk area demanding immediate attention from NOAA management.    Gaps in weather satellite coverage are likely and could affect lives and our economy. This morning I will provide a brief update on these gaps, contingency plans to address the gaps, and an update on the JPSS and GOES satellite acquisitions.    Starting with JPSS, an $11.3 billion acquisition that is to result in two polar orbiting satellites expected to be launched in March 2017 and December 2021. There has been significant progress on both the flight and ground components, and the program is expecting to meet its cost and schedule targets. However, since July 2013, cost estimates have gone up two percent, or over $220 million. The ATMS and CriS instruments have had the most significant increases. Although this doesn't sound like much, if this cost growth continued annually, the program would surpass its cost baseline by 2018 and end up costing $2 billion more through 2025.    The launch date of March 2017 looks good, but a key instrument to watch is ATMS. Its delivery slipped 12 months to March 2015 as we reported last month but we have now learned that there is another three month slip to June. Schedule reserves continue to dwindle, and oversight of this June delivery is very important to make sure that the March 2017 launch date holds.    A key risk to the current operational satellites to note is space debris. NASA recently updated its assessment of orbital debris, which concluded an increased likelihood at the altitude where the JPSS satellites operate. The current operational satellite that was originally intended as a demonstration satellite was not built with the appropriate shielding to protect against small debris the way the first JPSS satellite is currently being constructed.    The likely gap in satellite coverage is 11 months. The current operational satellite is expected to last through October 2016, and with the March 2017 planned launch date and the six month checkout, NOAA could very well be facing a gap in coverage from October 2016 through September 2017, as shown on the one-page summary in my written statement. Any issues with space debris or delays in the JPSS launch or the checkout period would result in a larger gap.    Multiple alternatives exist to prevent or reduce the impact of the gap. The best alternatives according to experts include extending the use of legacy satellites like POES and obtaining data from European mid-morning satellites, obtaining additional observations from commercial aircraft and radio occultation, enhancing forecast models, and increasingly high-performance computing capacity.    NOAA has improved its satellite gap contingency plans by, among other things, adding more alternatives, which now total 21 mitigation projects. However, there are three things we would like to see more done.    NOAA needs to, one, update its polar satellite gap assessment to include changes in the current satellite's expected lifespan; two, revise its contingency plan to include an assessment of alternatives based on cost, and three, prioritize the mitigation projects in its plan.    Moving now to GOES, a $10.8 billion acquisition that will result in four geostationary satellites with the first expected to be launched in March 2016. The GOES program continues to make excellent progress as all six satellite--as all six instruments have completed testing and the program is well into the integration and testing phases. The program is currently operating within its $10.8 billion lifecycle cost estimate but we saw a slight increases in both the ground system and two instruments but we think overall the program is on solid cost footing.    We have more doubts whether GOES will meet its scheduled launch date because we are seeing delays in key testing dates and also because the spacecraft integration testing has moved to 24 hours a day, seven days a week testing schedule. Maintaining this March 2016 launch date is crucial because an operational GOES satellite is expected to reach the end of its useful life by April of this year, and GOES-R is expected to have a 6-month checkout period. Therefore, there may be no backup from April 2015 through September 2016. GOES's latest contingency plan released in February of 2014 overall looks very good but we would like to see more focus on preventing additional launch delays.    In summary, on the JPSS, we have more concerns about cost and schedule, while on GOES we are more concerned about the launch date. Both programs are likely to face gaps, and improvements to contingency plans need to continue.    This concludes my statement.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you, Mr. Powner.    I now recognize Dr. Volz for five minutes to present his testimony.</t>
   </si>
   <si>
-    <t>Volz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Volz. Good morning, Chairmen Bridenstine and Loudermilk, Ranking Members Bonamici and Beyer, and Members of the Committee, I am pleased to be here today along with my colleagues from NOAA, John Murphy and Sandy MacDonald. All of us share a desire to ensure that the JPSS and GOES-R series programs are successful and support the Nation's weather enterprise.    We appreciate that Congress is supportive of NOAA's programs in the Fiscal Year 2015 appropriations bill. With these resources, NOAA will continue to provide environmental intelligence that is timely, accurate, actionable, reliable space-based information that citizens, communities and businesses need to stay safe and to operate efficiently.    Funding stability is essential for NOAA to maintain our operational readiness and to continue our progress in our critical research programs. For the NOAA satellite portfolio, we will provide continuous satellite data for current operations while maintaining essential satellite development to ensure the continuity of service to our customers and users into the future.    Every day, decisions are made by citizens and individuals and businesses based on the weather forecast, and we understand and appreciate it is our responsibility to operate the satellites that provide those data that go into the weather forecast. Our current operational geostationary and polar orbiting satellites provide on a 24-7 basis the space-based weather data required to support the weather enterprise of both the National Weather Service and the private weather industry. Research like in Sandy MacDonald's organization and in academia use these satellite data to develop products that can help the weather forecasters in John Murphy's organization produce those improved forecasts. And just yesterday, working together, NOAA, NASA and the Air Force launched the Deep Space Climate Observatory, or DSCOVR satellite on a SpaceX rocket from Cape Canaveral and it is now on its way to its observation point a million miles away from the Earth.    DSCOVR is a NOAA-operated follow-on to NASA's Advanced Composition Explorer, or ACE satellite, and as our buoy in space for geomagnetic storm warnings, the DSCOVR satellite will provide critical in situ data of these approaching solar storms in NOAA's Space Weather Prediction Center, or SWPC, and SWPC and the NWS provides the alerts, forecasts and warnings to commercial users, customers such as the aviation industry, telecommunications, operators of the electrical grid system, all of whom could be significantly affected by such events.    Turning to the GOES-R series and JPSS satellites that are the focus of this meeting, I am pleased to report that these programs are making excellent progress towards their launch dates. About this time next year, we will be preparing GOES-R at Cape Canaveral for its launch in March of 2016. GOES-R, the first in a series of four satellites with significant enhanced capabilities over the current GOES satellites, will continue NOAA's satellite provisions of 24/7 constant monitoring of the Atlantic Ocean, the continental United States, Hawaii, California and the Pacific Ocean for weather. Through ongoing work at the GOES-R proving ground, we are providing simulated GOES-R data to users now so that they will be ready for the real data flow immediately after launch and instrument commission in 2016.    NOAA announced recently that GOES-R satellite will be placed into operational service immediately following its initial onboard checkout period, again to ensure these measurements are made available to the Federal and public users immediately.    Moving to JPSS, by March 2017 the second satellite in the JPSS program, JPSS-1, will be launched. The launch of JPSS-1 will continue the numerical--the gains in numerical weather prediction modeling that we have benefited from since the Suomi NPP satellite was launched four years ago. The high-resolution sounders on Suomi NPP, ATMS and CriS, have provided immediate benefits to the quality of the NWS weather prediction models and ultimately the weather forecasts we all depend on.    In addition, the VIIRS imager on Suomi NPP has brought much improved observations of sea ice in the Alaskan and Arctic waters. The NWS and the U.S. Coast Guard are using blended products from VIIRS and commercially purchased synthetic aperture radar data to better map the ice and warn boats to avoid water where sea ice hazards exist.    The joint NASA-NOAA JPSS team has completed the procurement activities for the JPSS-2 instruments to accelerate the launch date for that mission. NESDIS is also advancing the development of the ground system for the COSMIC-2 radio occultation mission. This mission, which will be launched in 2016 in partnership with the U.S. Air Force and the National Space Organization of Taiwan, will provide thousands of critical radio occultation sightings per day and making a significant contribution to the NWS weather models.    In their reports, Mr. Powner and his staff have provided a number of observations along with specific recommendations from their most recent reviews of the GOES-R and JPSS programs. We value the dialog with the GAO as well as with other independent reviewers. As I have noted from my years with NASA, preparing for review is more benefit sometimes than actually the review itself. We concur with their assessments about the importance of these missions and need to stay vigilant and focused on mission success as indicated in the recommendations, and we folded those recommendations into our implementation plans moving forward.    In conclusion, these important programs, GOES-R and JPSS, have benefited from the best experience of NOAA, NASA and our aerospace partners and are making strong and consistent progress towards launch. Data from the satellites will support the complex process of developing the weather forecast in a three to seven seven day period. We believe these satellite programs have potential for success and to be able to provide the information needed for decision-making.    Thank you, and I look forward to answering questions.</t>
   </si>
   <si>
@@ -112,9 +94,6 @@
     <t>412221</t>
   </si>
   <si>
-    <t>Yvette D. Clarke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clarke. Chairmen, Ranking Members and other Members of the Subcommittees, good morning, and thank you for the opportunity to appear today to provide you information regarding NASA's role in and commitment to NOAA's Joint Polar Satellite System (JPSS) and Geostationary Operational Environmental Satellite-R (GOES-R) series programs.    JPSS and GOES-R programs are critical to the nation's weather forecasting system, environmental monitoring and research activities. NASA and NOAA have been partners for more than 40 years in developing the nation's polar and geosynchronous weather satellites.    Following the restructure of the National Polar-orbiting Operational Environmental Satellite System (NPOESS) program in 2010, NASA and NOAA returned to the successful partnership for JPSS. A NASA program office for JPSS was created and is staffed with a complement of NASA's civil servants and contractors. NOAA and NASA established joint agency-level program management councils to oversee JPSS and GOES-R and have integrated their decision-making processes to efficiently and effectively manage this cooperative activity.    The NASA and NOAA teams have continually demonstrated a strong working relationship over the last four years, and as Dr. Volz mentioned, I am very pleased and proud the NASA and NOAA team in partnership with the U.S. Air Force and SpaceX in launching the Deep Space Climate Observatory (DSCOVR), which will maintain the Nation's real-time solar wind monitoring capabilities. These measurements are critical to the accuracy and lead time of space weather alerts and forecasts. Once it reaches its destination at the first Sun-Earth Lagrangian point L-1, DSCOVR will help provide timely and accurate warnings of space weather events like the geomagnetic storms caused by changes in solar wind, which have the potential to disrupt nearly every major public infrastructure system, including power grids, telecommunications, aviation and the Global Positioning System (GPS).    Additionally, in the past four years of our partnership, NASA and NOAA have successfully launched the Suomi National Polar-orbiting Partnership (NPP) mission and the Total Solar Irridiance Calibration Transfer Experiment (TCTE) payload. Suomi NPP celebrated its three-year on-orbit anniversary this past October, providing operational data to NOAA for use in weather forecasting. The satellite was developed to extend the record of key observations from the NASA Earth Observing System series of satellites and to demonstrate spaceflight and ground data-processing technologies for the next generation of operational polar-orbiting meteorological satellites.    The JPSS-1 mission is on track towards the planned second-quarter Fiscal Year 2017 launch. The spacecraft Integration Readiness Review was completed in December and both the Clouds and Earth Radiant Energy System (CERES) and the Ozone Mapping and Profiler Suite-Nadir (OMPS-N) instruments have been fully integrated with the spacecraft. The Visible Infrared Imaging Radiometer Suite (VIIRS) and Cross-track Infrared Sounder (CrIS) instruments have completed environmental testing and are ready for installation onto the JPSS spacecraft.    The GOES-R series program of four geosynchronous satellites continues to make progress toward launching GOES-R, the first satellite of the series, in the second quarter of Fiscal Year 2016, and manufacturing GOES-S, the second satellite of the series, with a planned launch date in the third quarter of Fiscal Year 2017. Last year, the GOES-R Series Program successfully completed the GOES-R spacecraft Mission Operations Review and System Integration Review, allowing the spacecraft to enter the assembly, integration and test phase.    NASA and NOAA are committed to the JPSS and GOES-R programs, and ensuring the success of these programs is essential to both agencies and the Nation. The NASA and NOAA teams have established strong working relationships and are striving to ensure that weather and environmental monitoring requirements are met on the most efficient schedule without reducing system capabilities. I am confident the NASA/NOAA partnership will successfully develop and deliver the next-generation polar and geosynchronous weather satellites to our Nation.</t>
   </si>
   <si>
@@ -163,18 +142,12 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, ma'am. I just want to thank the Congress actually for Sandy supplemental funds that really enabled us to accelerate a lot of development activity that answered the call for mitigation efforts so things like aircraft data, we are now receiving additional aircraft data as a result of those funds. They are flowing into our system. They are being processed. So that is one example.    Getting back to, you know, the responsibility, since the very beginning of discussions of the mitigation activities, the individual line offices--I am the representative for the Weather Service but I have been meeting with my colleagues in the other line offices in NOAA on a weekly basis to discuss the various projects within the line offices and how they complement and work together with each other and execute, and as Dr. Volz said, we report to our AAs on a monthly basis and up to the Director of Operations on a quarterly basis and report to the Hill as well on a quarterly basis.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Bonamici. Terrific. I am going to let Dr. MacDonald take a stab at this.</t>
   </si>
   <si>
-    <t>MacDonald</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. MacDonald. Just quickly. The Sandy supplemental allowed us to work on both the assimilation and the models really effectively, so there are some improvements that we are going to see in the relatively near future that I think will really help with the gap.</t>
   </si>
   <si>
@@ -271,18 +244,12 @@
     <t xml:space="preserve">    Chairman Bridenstine. Thank you. The gentleman yields back. I recognize the gentleman from Colorado for five minutes----</t>
   </si>
   <si>
-    <t>Perlmutter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perlmutter. She was here first and has a higher rank.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. The gentlelady from Maryland is recognized for five minutes.</t>
   </si>
   <si>
-    <t>Edwards</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Edwards. Thank you. I have waited six years on this Committee to hear that, and I want to thank our witnesses and obviously our Chairpersons and Ranking Members.    You know, I remember when I first came on to the Committee that it was in the throes, I guess the summer of--I don't know--2008, and it was at a time when there was great consternation about the satellite programs, the management of those, the relationship between NASA and NOAA and DoD, and I think that we have come--we heard from GAO at that time and I think we have come a long way since then, and so I really wanted to be able to salute NASA and NOAA for, you know, after some period of time in fits and starts figuring out the working relationship using the best capabilities of NASA and NOAA to make sure that we could try to get this program back on track.    As the GAO has indicated, you know, we still have some challenges obviously and possibilities for gaps in coverage, and so that remains a concern for the Committee in addition to the predicted cost. I think we started out with the idea that we were going to have six satellites. Now we are at two. And so this has been a really difficult thing.    I want to also acknowledge that today in our audience are a group of students from the University of Maryland in College Park, which is the home to NOAA's Center for Weather and Climate Prediction. The home for NOAA is actually in Suitland, Maryland, right down the street from my office. I spent a lot of time there. I think I did go to observe the NPP launch, and thankfully, rather than just being an experimental platform, it is usable and operational, because I think that helps in the consideration of this discussion.    I guess the question I have actually has to do with the gaps in coverage, and I understand, you know, the imprecision with which one can predict whether there is going to be a gap or not, but I wonder, Dr. Volz, if you could respond to the idea that--of what NOAA's current gap assessment is, and it is also my understanding that NOAA is estimating a longer life expectancy for NPP than before because of its strong performance to date and, you know, so what is your anticipation of the operational period for NPP and what activities are being undertaken to ensure NPP's longevity?</t>
   </si>
   <si>
@@ -626,9 +593,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. All right. I would like to recognize the gentleman from Texas, Dr. Babin, for five minutes.</t>
-  </si>
-  <si>
-    <t>Babin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Babin. Thank you, Mr. Chairman.    Dr. Volz, in April of 2013, NOAA removed funding for three years of operations at the end of JPSS missions to keep the lifecycle cost of the program around $11 billion, two-part question. Even though JPSS-2 will be operational through 2028, operations, I see, are only funded through 2025. Is this a gimmick to hide the true cost of the program?</t>
@@ -1096,11 +1060,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1122,11 +1084,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1148,11 +1108,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1172,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1200,11 +1156,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1224,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1252,11 +1204,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1278,11 +1228,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1304,11 +1252,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1330,11 +1276,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1356,11 +1300,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1380,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1408,11 +1348,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1434,11 +1372,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>28</v>
-      </c>
-      <c r="H15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1460,11 +1396,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1486,11 +1420,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1512,11 +1444,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1538,11 +1468,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1564,11 +1492,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1590,11 +1516,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1616,11 +1540,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1642,11 +1564,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1668,11 +1588,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1694,11 +1612,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1720,11 +1636,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1746,11 +1660,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1770,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1798,11 +1708,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1824,11 +1732,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>52</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1850,11 +1756,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>14</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1876,11 +1780,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>28</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1900,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1928,11 +1828,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>14</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1954,11 +1852,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1980,11 +1876,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>14</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2006,11 +1900,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2030,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2058,11 +1948,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2084,11 +1972,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2108,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2134,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2160,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2186,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2212,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2238,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2264,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2292,11 +2164,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2316,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2344,11 +2212,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2368,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2394,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2420,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2446,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2474,11 +2332,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>52</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2498,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2526,11 +2380,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2550,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2576,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2604,11 +2452,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2630,11 +2476,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2656,11 +2500,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>85</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2682,11 +2524,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2708,11 +2548,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>88</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2734,11 +2572,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2760,11 +2596,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>88</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2786,11 +2620,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2812,11 +2644,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>88</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2838,11 +2668,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2864,11 +2692,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>85</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2890,11 +2716,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2916,11 +2740,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>85</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2942,11 +2764,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>52</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2968,11 +2788,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>85</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2994,11 +2812,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3020,11 +2836,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3046,11 +2860,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3072,11 +2884,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3096,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
-      </c>
-      <c r="G79" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3124,11 +2932,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3150,11 +2956,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>28</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3176,11 +2980,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3202,11 +3004,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3228,11 +3028,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3254,11 +3052,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3280,11 +3076,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3306,11 +3100,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3332,11 +3124,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3358,11 +3148,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>28</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3384,11 +3172,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3410,11 +3196,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>28</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3436,11 +3220,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3462,11 +3244,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>28</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3488,11 +3268,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3512,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>48</v>
-      </c>
-      <c r="G95" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3540,11 +3316,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3566,11 +3340,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>28</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3592,11 +3364,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3618,11 +3388,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>52</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3644,11 +3412,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3670,11 +3436,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>52</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3696,11 +3460,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3722,11 +3484,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3748,11 +3508,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>14</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3774,11 +3532,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>52</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3800,11 +3556,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>14</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3824,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
-      </c>
-      <c r="G107" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3852,11 +3604,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>14</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3878,11 +3628,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>28</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3904,11 +3652,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>14</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3930,11 +3676,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>28</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3956,11 +3700,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>14</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3982,11 +3724,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4006,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4034,11 +3772,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>28</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4058,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4086,11 +3820,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>28</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4110,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4138,11 +3868,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>28</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4162,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4190,11 +3916,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>25</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4214,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
-      </c>
-      <c r="G122" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4242,11 +3964,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>28</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4266,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G124" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4294,11 +4012,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4318,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4346,11 +4060,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>28</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4370,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4398,11 +4108,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>28</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4422,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4448,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
-      </c>
-      <c r="G131" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4474,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4502,11 +4204,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4528,11 +4228,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>88</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4552,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
-      </c>
-      <c r="G135" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4580,11 +4276,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>88</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4606,11 +4300,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4632,11 +4324,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>85</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4658,11 +4348,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>28</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4684,11 +4372,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>85</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4710,11 +4396,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>25</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4736,11 +4420,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>85</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4762,11 +4444,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>52</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4788,11 +4468,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>85</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4814,11 +4492,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4838,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
-      </c>
-      <c r="G146" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4866,11 +4540,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4890,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
-      </c>
-      <c r="G148" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4918,11 +4588,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4944,11 +4612,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>28</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4970,11 +4636,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4996,11 +4660,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>28</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5022,11 +4684,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5048,11 +4708,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>28</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5074,11 +4732,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5100,11 +4756,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>28</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5126,11 +4780,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5152,11 +4804,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>28</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5176,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>48</v>
-      </c>
-      <c r="G159" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5204,11 +4852,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5230,11 +4876,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>28</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5256,11 +4900,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5280,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5308,11 +4948,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>28</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5332,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5360,11 +4996,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>28</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5384,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
-      </c>
-      <c r="G167" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5410,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>48</v>
-      </c>
-      <c r="G168" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5438,11 +5068,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>28</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5462,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
-      </c>
-      <c r="G170" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5490,11 +5116,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>25</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5514,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>21</v>
-      </c>
-      <c r="G172" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5542,11 +5164,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>85</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5568,11 +5188,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5594,11 +5212,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>85</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5620,11 +5236,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>25</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5646,11 +5260,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>85</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5672,11 +5284,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5698,11 +5308,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>204</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5724,11 +5332,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>28</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5750,11 +5356,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>204</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5776,11 +5380,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>28</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5802,11 +5404,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>204</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5828,11 +5428,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>28</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5854,11 +5452,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>204</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5880,11 +5476,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>28</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5906,11 +5500,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>204</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5932,11 +5524,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>25</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5958,11 +5548,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>204</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5984,11 +5572,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>52</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6010,11 +5596,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>204</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6036,11 +5620,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>28</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6062,11 +5644,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>204</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6088,11 +5668,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>28</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6114,11 +5692,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>204</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6140,11 +5716,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6166,11 +5740,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>28</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6192,11 +5764,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6218,11 +5788,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>28</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6244,11 +5812,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6270,11 +5836,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>28</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93883.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93883.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,9 +55,15 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Bridenstine. The Subcommittees on the Environment and Oversight will come to order.    Without objection, the Chair is authorized to declare a recess of the Subcommittee at any time. Is there any objection? No objection.    Good morning. Welcome to the today's hearing: ``Bridging the Gap: America's Weather Satellites and Weather Forecasting.'' In front of you are packets containing the written testimony, biographies, and Truth in Testimony disclosures for today's witnesses.    For opening statements, I will recognize myself for five minutes and then I will turn to the Ranking Member and the Chairman on Oversight and the Ranking Member on Oversight.    Good morning, and welcome to the first Environment Subcommittee hearing for the 114th Congress. I want to thank the Full Committee Chairman, Lamar Smith, for his continued leadership.    I would like to congratulate Mr. Loudermilk of Georgia for his assignment as the Chairman of the Oversight Subcommittee. Welcome, and congratulations.    I would like to welcome back the Ranking Member, Ms. Bonamici of Oregon, who I look forward to working with in this Congress, and we have worked very well together in the past and looking forward to another great Congress.    And I would like to congratulate Mr. Beyer of Virginia for his assignment as the Ranking Member of Oversight on this Subcommittee, so congratulations and welcome.    This Committee has held numerous hearings over the years on NOAA's weather satellite programs. Today we continue this oversight by examining the status of NOAA's two primary satellite systems, the Joint Polar Satellite System (JPSS) and the Geostationary Environmental Operational Satellite System (GOES). These satellites collect vital data that is fed into the numerical weather models that are used by meteorologists to make our forecasts, and where I come from in the great State of Oklahoma, critically important data for predicting thunderstorms and tornados.    These two programs comprise the lion's share of funding for NESDIS, the satellite office at NOAA. In the newly released Fiscal Year 2016 budget request, NESDIS accounts for over $2 billion, roughly 40 percent of the NOAA's total budget. Just seven years ago, in 2008, NOAA's budget for satellites was less than $1 billion and was roughly one-quarter of NOAA's overall spending. The NESDIS budget has grown dramatically over the last decade.    In addition, recent reports from the GAO highlight continuing challenges with NOAA's satellite programs. The JPSS program has been plagued with increasing costs and delays, meaning we are probably facing a gap in satellite coverage and data. Estimates of the data gap range from an optimistic three months in some cases to possibly as much as five years, depending on circumstances, in the worst-case scenario outlined by the GAO. With a gap, our ability to predict weather would be dramatically degraded, putting lives and property in danger. This is especially important to me, as my home state is Oklahoma, and we are regularly ravaged by tornados.    Likewise, the GOES program has also experienced increasing lifecycle costs and project delays. With the first satellite launch now pushed back to March 2016, it is important that the program adhere to its already-delayed schedule and prevent another gap in satellite coverage and data.    Given the criticality of JPSS and GOES to our forecasts, it is imperative we ensure these programs receive the adequate support and oversight to avoid further delays and costs overruns.    I hope we can use this hearing to determine how to keep these programs from slipping further and mitigate any possible gaps. However, the failures of these programs to stay on track so far highlight a recent track record for our satellite programs that is less than good, and that the paradigm of owning and operating large monolithic satellites might not be the way forward.    To address this problem, we should look to augment our satellite systems through commercial means, just as the Department of Defense and NASA have done. There is a burgeoning commercial industry that has incredible potential to assist us in providing accurate information to protect American lives and property, disaggregate risk, and save the taxpayers' dollars. We need to have the most resilient space-based weather data architecture ever. Instead of continuing down the path of large government-owned satellites that are prone to cost overruns and delays, as we look forward into the future, we must look outside the box for new methods of providing essential weather data. For example, there are private companies such as PlanetIQ, Spire, GeoOptics, Tempus Global Data and HySpecIQ that have plans to launch constellations of GPS Radio Occultation and Hyperspectral Sounding satellites, two sources of data that can greatly enhance our forecasting ability. Considering options that reduce the burden on massive government satellite systems will allow us to more accurately predict weather in future architecture paradigms.    It has become increasingly difficult to remain optimistic about the future of U.S. weather forecasting, which currently lags behind the UK, Europe, and Canada in terms of accuracy, when we have satellite programs that are plagued with increasing costs and perpetual delays. The prospect of gaps in satellite data are even higher. We need to look for ways to reduce government burdens and eliminate these types of problems while increasing our ability to protect American lives and property.    I look forward to hearing from our witnesses today, and I would like to recognize our Ranking Member, the gentlelady from Oregon, for an opening statement.</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman, and I want to begin this morning by offering my congratulations to you, Mr. Bridenstine, and to our new Oversight Subcommittee Chairman, Mr. Loudermilk, and to our Oversight Ranking Member, Mr. Beyer. I would also like to extend a warm welcome to all of the new Subcommittee members. We are very fortunate to have the opportunity to serve on the Committee on Science, Space, and Technology and to help shape policies that are critical to the long-term health and prosperity of the Nation.    This morning's hearing is a fitting way to undertake our work. Oversight of NOAA's weather satellites has been a longstanding bipartisan effort of this Committee, spanning many Administrations and sessions of Congress, and it is my hope that this hearing is just the beginning of a productive and bipartisan working relationship.    Now, Mr. Chairman, I doubt that the average American spends much time thinking about the weather satellites managed by NOAA. We might, but I do know that one of the first things many of us do each morning is turn on the television or get on the internet or our favorite app to read the day's weather forecast, and that is because weather is important, affecting everything from our commute to the food on our table. In fact, a 2009 study from the American Meteorological Society stated that U.S. weather forecasts generated $31.5 billion in profits compared to costs of $5.1 billion.    On this Committee, we have worked on finding ways to improve forecasting to protect the American people and the economy from the impacts of severe weather, and I am proud to be working the Chairman on bipartisan legislation, the Weather Forecasting Improvement Act, to advance NOAA's weather research enterprise and improve the products and services offered by the National Weather Service. That effort is important and ongoing.    But meanwhile, any loss of coverage from the polar satellites or the geostationary satellites would have very serious consequences regarding the accuracy and timeliness of our weather forecasts and the capabilities of the Weather Service. Unfortunately, years of trouble and mismanagement in the polar satellite program mean that we will have a gap in coverage within the next decade, with the worst-case scenario being a gap lasting more than five years. In addition, there remains a chance that we face a gap in geostationary satellite coverage as well.    I am certain that we will hear from today's witnesses about progress that has been made in this area, and I am pleased that NOAA and NASA are working to get these programs back on track. I applaud you for your efforts, but we are here today to emphasize the importance of maintaining focus on getting these programs where they need to be to protect American people and our economy. It may be possible to reduce the gap in coverage if there is optimal performance by our current satellites that enables them to greatly exceed their design lives. Additionally, if JPSS-1 and GOES-R launch on time, that may reduce the gap in coverage. It is still important that prudent managers have plans in place in the event of failure, and it is also critical that any gap mitigation strategy is well developed and ready to implement.    Unfortunately, the testimony today from GAO highlights a number of concerns with these contingency plans, specifically with NOAA's plans to respond to the near-term data gap for our polar satellites.    So the questions and issues for our witnesses today are quite simple: How can we best minimize the duration and impact of a gap in the polar program? How can we avoid a gap in the geostationary program? And are plans to fill gaps in coverage appropriately mature, prioritized, and ready to implement?    The American public may not spend much time thinking about where their weather forecasts come from, but they will notice if those forecasts aren't reliable. I am looking forward to hearing from the witnesses from GAO, NOAA and NASA to discuss how their agencies' plans to address the looming gap in satellite coverage.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -64,6 +73,12 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Good morning, and thank you, Mr. Chairman, and congratulations to you, the Ranking Members of both Subcommittees, and especially thank the members of the Oversight Subcommittee for being here today.    And Mr. Chairman, thank you for holding this hearing today. This is our first joint Environmental and Oversight Committee hearing of the 114th Congress, and I look forward to working with you on the oversight of environmental issues important to all of us.    We are here today to hear from GAO, NOAA, and NASA regarding the progress of NOAA's polar orbiting and geostationary satellite programs, respectively JPSS and GOES-R, as well as how the data collected by weather satellites turns into weather forecasts depended on by so many in the United States, and quite frankly, around the entire world.    GAO recently published a report detailing its concern that the NOAA polar satellite program, JPSS, is facing an unprecedented gap in satellite data. GAO believes that, while JPSS remains within its new lifecycle cost estimate and schedule baselines, recent rises in component costs and technical issues during development increase the likelihood of a near-term data gap. Additionally, although NOAA has recently reduced its estimated potential gap from fifteen to only three months, GAO notes that this assessment was based on incomplete data, such as the risks posed by space debris to satellite hardware. GAO estimates in its report that a data gap may occur earlier and last longer than NOAA anticipates.    Perhaps even more troubling is the potential data gap facing NOAA's GOES-R program, the geostationary satellite system. Since its inception, the GOES-R program has undergone significant increases in cost and reductions in scope, and as GAO's report indicates, NOAA has yet to reverse or even halt this trend. The program was originally planned to launch mid-2012, a date that has now been pushed back to March of 2016. NOAA will retire one of its two operational satellites this year and move its backup satellite into orbit. This means we will face a period of up to 17 months without a backup satellite in orbit.    History has shown us that backups are sometimes necessary to reduce risk to public safety and the economy. In 2008 and 2012, the agency was forced to use backup satellites to cover problems with operational satellites, a solution we may once again find ourselves needing.    When talking about the consequences of a gap in weather data, the first thought in the minds of many is of the devastating effects of extreme weather on the ground. My professional and personal history, however, demands that I discuss another type of weather with which I have quite a bit of experience, and that is aviation weather.    As a private pilot, I know the importance of having accurate and timely weather forecasts to assess flying conditions. Pilots must evaluate conditions on the ground and in the sky throughout the entire flight process, from preflight planning to takeoff and landing. If a pilot does not know which aviation-specific weather conditions to expect, such as embedded thunderstorms, turbulence, and freeze levels, that pilot runs the risk of what we call getting behind the plane. That is a general aviation phrase which means that the plane is responding to the weather and the pilot is responding to the plane, and that is a situation that spells trouble for even the most seasoned pilots.    From this perspective, you can see how a gap in weather data, and consequently less accurate forecasts, could negatively affect not only commercial flight safety, but also the $1.5 trillion in total economic activity that the aviation industry contributes to the national economy.    I hope that today's hearing will shed some light on the complex issue and cost demands facing NOAA's weather satellite programs and that the Subcommittees will walk away better equipped to consider these issues moving forward.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -73,18 +88,30 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman. I would like to add my congratulations to Chairman Bridenstine and Chairman Loudermilk, and we are really looking forward to working with you. I am thrilled to work with Ranking Member Bonamici, and just join myself with all the comments welcoming the various folks.    I am told that historically, this Committee has been a haven of bipartisanship, and in the area of oversight, I really hope that we can work together to improve the quality of government services and protect taxpayer interests, and from my side, I am really looking forward to working with my colleagues on both sides of the aisle.    You know, six years ago I had the remarkable responsibility to lead the transition team for President-Elect Obama at the Department of Commerce. Seventy-seven days, 6:00 in the morning until midnight. I learned to drink coffee for the first time. And I very quickly discovered that the number one problem in the Department of Commerce were the weather satellites, that the things we saw were the cost overruns were many multiples of the original idea. There were no reliable launch dates at all. We couldn't get the equipment to work. The satellites were loaded up with lots and lots of different ideas but none of which could work out. They had this tripartite management system with DoD, NASA and NOAA, and no one was in charge, so it was actually very encouraging to see how far we have come in these six years to have narrowed it to where we are.    But we still had a rocky acquisition with the new series of weather satellites, and the polar orbiting satellites especially have been troubled. Costs have doubled. The money is now buying just two satellites instead of the original intention to acquire six, and the satellites that fly will be less capable because the instruments are going to be reduced from 13 down to just 5, and they are still years behind schedule.    By comparison, the geostationary satellites seem to be models of efficiency, but they too have had trouble too with cost growth and areas of delays. As satellites that have a critical role in weather forecasting, losing coverage of either system could have serious, perhaps catastrophic effects on public safety. Both the Joint Polar Satellite System and the Geostationary Operational Environmental Satellites face this possibility of a gap in coverage, and I hope that if we learn only one thing today, learning how to really address this gap, will help us go forward.    At this point, the only way to avoid the gap is to be very, very lucky, and that is not a really good plan. You know, the problem is that the cost of these satellites distorts all the rest of NOAA's budget and limits the agency's resources for the many, many other important functions that they have--research into weather, oceans, climate science. Surely NOAA understands that the JPSS program represents a failure and an unsustainable model, so going forward, we have to find a more efficient, reliable means to put these instruments into orbit, and Mr. Chairman, I was interested in your alternatives.    GAO has been working with this Committee on these satellite programs for ten years. Without their expert and committed assistance, the Congress and the public would know far less about the risks in these programs. Every GAO product and team has to be measured on its own terms, but this group that has been working on the satellites system is among our very best, and I think the Committee has to be very grateful for their service.    For all the lessons that can be learned from the JPSS and GOES acquisitions, the most important immediate challenge has to be to complete both projects as expeditiously as possible. It is great that we have a pretty reliable launch date, but we have got to get them in orbit, checked out, and bring their data online as quickly as possible, and after years of truly worrisome reports, it appears that NOAA and NASA have good management teams in place and the contractors are now delivering as promised, and the Committee wants to be as helpful and supportive as we can as we reach this last stretch going into launch.    At the same time, the news from GAO that NOAA is not well positioned on the data-gap mitigation plans in place is disappointing, and I hope we learn more today about we are going to do that.    Mr. Chairman, I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you, Mr. Beyer.    If there are other Members who wish to submit additional opening statements, your statements will be added to the record at this point.    At this time I would like to introduce our witnesses. Our first witness today is Mr. David Powner, Director of Information Technology Management Issues at the GAO. Our second witness is Dr. Stephen Volz, Assistant Administrator of the National Environmental Satellite Data and Information Service--NESDIS--at the National Oceanic and Atmospheric Administration--NOAA. Our third witness today is Mr. Steven Clarke, Director of the Joint Agency Satellite Division at the National Aeronautics and Space Administration. We will also be joined for questioning by Dr. Alexander MacDonald, Director of the Earth System Research Laboratory at NOAA, Chief Science Advisor for NOAA's Office of Oceanic and Atmospheric Research, and this year's President of the American Meteorological Society. Finally, we are joined for questioning by Mr. John Murphy, Director of the Office of Science and Technology at the National Weather Service for NOAA. Thank you, gentlemen, for all being here.    Pursuant to the Committee rules, all witnesses will be sworn in before they testify, so if you would please stand up and raise your right hand? Do you solemnly swear or affirm that the testimony that you are about to give will be the truth, the whole truth and nothing but the truth, so help you God? You may be seated. Let the record reflect that the witnesses answered in the affirmative. Thank you.    In order to allow for discussion, please limit your testimony to five minutes for your opening statements. Your entire written statement will be made part of the record.    I now recognize Mr. Powner for five minutes to present his testimony.</t>
   </si>
   <si>
+    <t>Powner</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Powner. Chairmen Bridenstine, Loudermilk, Ranking Members Bonamici, Beyer, and Members of the Subcommittees, two years ago, GAO added potential gaps in weather satellite coverage in consultation with this Committee as a high-risk area demanding immediate attention from NOAA management.    Gaps in weather satellite coverage are likely and could affect lives and our economy. This morning I will provide a brief update on these gaps, contingency plans to address the gaps, and an update on the JPSS and GOES satellite acquisitions.    Starting with JPSS, an $11.3 billion acquisition that is to result in two polar orbiting satellites expected to be launched in March 2017 and December 2021. There has been significant progress on both the flight and ground components, and the program is expecting to meet its cost and schedule targets. However, since July 2013, cost estimates have gone up two percent, or over $220 million. The ATMS and CriS instruments have had the most significant increases. Although this doesn't sound like much, if this cost growth continued annually, the program would surpass its cost baseline by 2018 and end up costing $2 billion more through 2025.    The launch date of March 2017 looks good, but a key instrument to watch is ATMS. Its delivery slipped 12 months to March 2015 as we reported last month but we have now learned that there is another three month slip to June. Schedule reserves continue to dwindle, and oversight of this June delivery is very important to make sure that the March 2017 launch date holds.    A key risk to the current operational satellites to note is space debris. NASA recently updated its assessment of orbital debris, which concluded an increased likelihood at the altitude where the JPSS satellites operate. The current operational satellite that was originally intended as a demonstration satellite was not built with the appropriate shielding to protect against small debris the way the first JPSS satellite is currently being constructed.    The likely gap in satellite coverage is 11 months. The current operational satellite is expected to last through October 2016, and with the March 2017 planned launch date and the six month checkout, NOAA could very well be facing a gap in coverage from October 2016 through September 2017, as shown on the one-page summary in my written statement. Any issues with space debris or delays in the JPSS launch or the checkout period would result in a larger gap.    Multiple alternatives exist to prevent or reduce the impact of the gap. The best alternatives according to experts include extending the use of legacy satellites like POES and obtaining data from European mid-morning satellites, obtaining additional observations from commercial aircraft and radio occultation, enhancing forecast models, and increasingly high-performance computing capacity.    NOAA has improved its satellite gap contingency plans by, among other things, adding more alternatives, which now total 21 mitigation projects. However, there are three things we would like to see more done.    NOAA needs to, one, update its polar satellite gap assessment to include changes in the current satellite's expected lifespan; two, revise its contingency plan to include an assessment of alternatives based on cost, and three, prioritize the mitigation projects in its plan.    Moving now to GOES, a $10.8 billion acquisition that will result in four geostationary satellites with the first expected to be launched in March 2016. The GOES program continues to make excellent progress as all six satellite--as all six instruments have completed testing and the program is well into the integration and testing phases. The program is currently operating within its $10.8 billion lifecycle cost estimate but we saw a slight increases in both the ground system and two instruments but we think overall the program is on solid cost footing.    We have more doubts whether GOES will meet its scheduled launch date because we are seeing delays in key testing dates and also because the spacecraft integration testing has moved to 24 hours a day, seven days a week testing schedule. Maintaining this March 2016 launch date is crucial because an operational GOES satellite is expected to reach the end of its useful life by April of this year, and GOES-R is expected to have a 6-month checkout period. Therefore, there may be no backup from April 2015 through September 2016. GOES's latest contingency plan released in February of 2014 overall looks very good but we would like to see more focus on preventing additional launch delays.    In summary, on the JPSS, we have more concerns about cost and schedule, while on GOES we are more concerned about the launch date. Both programs are likely to face gaps, and improvements to contingency plans need to continue.    This concludes my statement.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you, Mr. Powner.    I now recognize Dr. Volz for five minutes to present his testimony.</t>
   </si>
   <si>
+    <t>Volz</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Volz. Good morning, Chairmen Bridenstine and Loudermilk, Ranking Members Bonamici and Beyer, and Members of the Committee, I am pleased to be here today along with my colleagues from NOAA, John Murphy and Sandy MacDonald. All of us share a desire to ensure that the JPSS and GOES-R series programs are successful and support the Nation's weather enterprise.    We appreciate that Congress is supportive of NOAA's programs in the Fiscal Year 2015 appropriations bill. With these resources, NOAA will continue to provide environmental intelligence that is timely, accurate, actionable, reliable space-based information that citizens, communities and businesses need to stay safe and to operate efficiently.    Funding stability is essential for NOAA to maintain our operational readiness and to continue our progress in our critical research programs. For the NOAA satellite portfolio, we will provide continuous satellite data for current operations while maintaining essential satellite development to ensure the continuity of service to our customers and users into the future.    Every day, decisions are made by citizens and individuals and businesses based on the weather forecast, and we understand and appreciate it is our responsibility to operate the satellites that provide those data that go into the weather forecast. Our current operational geostationary and polar orbiting satellites provide on a 24-7 basis the space-based weather data required to support the weather enterprise of both the National Weather Service and the private weather industry. Research like in Sandy MacDonald's organization and in academia use these satellite data to develop products that can help the weather forecasters in John Murphy's organization produce those improved forecasts. And just yesterday, working together, NOAA, NASA and the Air Force launched the Deep Space Climate Observatory, or DSCOVR satellite on a SpaceX rocket from Cape Canaveral and it is now on its way to its observation point a million miles away from the Earth.    DSCOVR is a NOAA-operated follow-on to NASA's Advanced Composition Explorer, or ACE satellite, and as our buoy in space for geomagnetic storm warnings, the DSCOVR satellite will provide critical in situ data of these approaching solar storms in NOAA's Space Weather Prediction Center, or SWPC, and SWPC and the NWS provides the alerts, forecasts and warnings to commercial users, customers such as the aviation industry, telecommunications, operators of the electrical grid system, all of whom could be significantly affected by such events.    Turning to the GOES-R series and JPSS satellites that are the focus of this meeting, I am pleased to report that these programs are making excellent progress towards their launch dates. About this time next year, we will be preparing GOES-R at Cape Canaveral for its launch in March of 2016. GOES-R, the first in a series of four satellites with significant enhanced capabilities over the current GOES satellites, will continue NOAA's satellite provisions of 24/7 constant monitoring of the Atlantic Ocean, the continental United States, Hawaii, California and the Pacific Ocean for weather. Through ongoing work at the GOES-R proving ground, we are providing simulated GOES-R data to users now so that they will be ready for the real data flow immediately after launch and instrument commission in 2016.    NOAA announced recently that GOES-R satellite will be placed into operational service immediately following its initial onboard checkout period, again to ensure these measurements are made available to the Federal and public users immediately.    Moving to JPSS, by March 2017 the second satellite in the JPSS program, JPSS-1, will be launched. The launch of JPSS-1 will continue the numerical--the gains in numerical weather prediction modeling that we have benefited from since the Suomi NPP satellite was launched four years ago. The high-resolution sounders on Suomi NPP, ATMS and CriS, have provided immediate benefits to the quality of the NWS weather prediction models and ultimately the weather forecasts we all depend on.    In addition, the VIIRS imager on Suomi NPP has brought much improved observations of sea ice in the Alaskan and Arctic waters. The NWS and the U.S. Coast Guard are using blended products from VIIRS and commercially purchased synthetic aperture radar data to better map the ice and warn boats to avoid water where sea ice hazards exist.    The joint NASA-NOAA JPSS team has completed the procurement activities for the JPSS-2 instruments to accelerate the launch date for that mission. NESDIS is also advancing the development of the ground system for the COSMIC-2 radio occultation mission. This mission, which will be launched in 2016 in partnership with the U.S. Air Force and the National Space Organization of Taiwan, will provide thousands of critical radio occultation sightings per day and making a significant contribution to the NWS weather models.    In their reports, Mr. Powner and his staff have provided a number of observations along with specific recommendations from their most recent reviews of the GOES-R and JPSS programs. We value the dialog with the GAO as well as with other independent reviewers. As I have noted from my years with NASA, preparing for review is more benefit sometimes than actually the review itself. We concur with their assessments about the importance of these missions and need to stay vigilant and focused on mission success as indicated in the recommendations, and we folded those recommendations into our implementation plans moving forward.    In conclusion, these important programs, GOES-R and JPSS, have benefited from the best experience of NOAA, NASA and our aerospace partners and are making strong and consistent progress towards launch. Data from the satellites will support the complex process of developing the weather forecast in a three to seven seven day period. We believe these satellite programs have potential for success and to be able to provide the information needed for decision-making.    Thank you, and I look forward to answering questions.</t>
   </si>
   <si>
@@ -94,6 +121,12 @@
     <t>412221</t>
   </si>
   <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>Yvette</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clarke. Chairmen, Ranking Members and other Members of the Subcommittees, good morning, and thank you for the opportunity to appear today to provide you information regarding NASA's role in and commitment to NOAA's Joint Polar Satellite System (JPSS) and Geostationary Operational Environmental Satellite-R (GOES-R) series programs.    JPSS and GOES-R programs are critical to the nation's weather forecasting system, environmental monitoring and research activities. NASA and NOAA have been partners for more than 40 years in developing the nation's polar and geosynchronous weather satellites.    Following the restructure of the National Polar-orbiting Operational Environmental Satellite System (NPOESS) program in 2010, NASA and NOAA returned to the successful partnership for JPSS. A NASA program office for JPSS was created and is staffed with a complement of NASA's civil servants and contractors. NOAA and NASA established joint agency-level program management councils to oversee JPSS and GOES-R and have integrated their decision-making processes to efficiently and effectively manage this cooperative activity.    The NASA and NOAA teams have continually demonstrated a strong working relationship over the last four years, and as Dr. Volz mentioned, I am very pleased and proud the NASA and NOAA team in partnership with the U.S. Air Force and SpaceX in launching the Deep Space Climate Observatory (DSCOVR), which will maintain the Nation's real-time solar wind monitoring capabilities. These measurements are critical to the accuracy and lead time of space weather alerts and forecasts. Once it reaches its destination at the first Sun-Earth Lagrangian point L-1, DSCOVR will help provide timely and accurate warnings of space weather events like the geomagnetic storms caused by changes in solar wind, which have the potential to disrupt nearly every major public infrastructure system, including power grids, telecommunications, aviation and the Global Positioning System (GPS).    Additionally, in the past four years of our partnership, NASA and NOAA have successfully launched the Suomi National Polar-orbiting Partnership (NPP) mission and the Total Solar Irridiance Calibration Transfer Experiment (TCTE) payload. Suomi NPP celebrated its three-year on-orbit anniversary this past October, providing operational data to NOAA for use in weather forecasting. The satellite was developed to extend the record of key observations from the NASA Earth Observing System series of satellites and to demonstrate spaceflight and ground data-processing technologies for the next generation of operational polar-orbiting meteorological satellites.    The JPSS-1 mission is on track towards the planned second-quarter Fiscal Year 2017 launch. The spacecraft Integration Readiness Review was completed in December and both the Clouds and Earth Radiant Energy System (CERES) and the Ozone Mapping and Profiler Suite-Nadir (OMPS-N) instruments have been fully integrated with the spacecraft. The Visible Infrared Imaging Radiometer Suite (VIIRS) and Cross-track Infrared Sounder (CrIS) instruments have completed environmental testing and are ready for installation onto the JPSS spacecraft.    The GOES-R series program of four geosynchronous satellites continues to make progress toward launching GOES-R, the first satellite of the series, in the second quarter of Fiscal Year 2016, and manufacturing GOES-S, the second satellite of the series, with a planned launch date in the third quarter of Fiscal Year 2017. Last year, the GOES-R Series Program successfully completed the GOES-R spacecraft Mission Operations Review and System Integration Review, allowing the spacecraft to enter the assembly, integration and test phase.    NASA and NOAA are committed to the JPSS and GOES-R programs, and ensuring the success of these programs is essential to both agencies and the Nation. The NASA and NOAA teams have established strong working relationships and are striving to ensure that weather and environmental monitoring requirements are met on the most efficient schedule without reducing system capabilities. I am confident the NASA/NOAA partnership will successfully develop and deliver the next-generation polar and geosynchronous weather satellites to our Nation.</t>
   </si>
   <si>
@@ -142,12 +175,21 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, ma'am. I just want to thank the Congress actually for Sandy supplemental funds that really enabled us to accelerate a lot of development activity that answered the call for mitigation efforts so things like aircraft data, we are now receiving additional aircraft data as a result of those funds. They are flowing into our system. They are being processed. So that is one example.    Getting back to, you know, the responsibility, since the very beginning of discussions of the mitigation activities, the individual line offices--I am the representative for the Weather Service but I have been meeting with my colleagues in the other line offices in NOAA on a weekly basis to discuss the various projects within the line offices and how they complement and work together with each other and execute, and as Dr. Volz said, we report to our AAs on a monthly basis and up to the Director of Operations on a quarterly basis and report to the Hill as well on a quarterly basis.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Bonamici. Terrific. I am going to let Dr. MacDonald take a stab at this.</t>
   </si>
   <si>
+    <t>MacDonald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. MacDonald. Just quickly. The Sandy supplemental allowed us to work on both the assimilation and the models really effectively, so there are some improvements that we are going to see in the relatively near future that I think will really help with the gap.</t>
   </si>
   <si>
@@ -244,12 +286,18 @@
     <t xml:space="preserve">    Chairman Bridenstine. Thank you. The gentleman yields back. I recognize the gentleman from Colorado for five minutes----</t>
   </si>
   <si>
+    <t>Perlmutter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perlmutter. She was here first and has a higher rank.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. The gentlelady from Maryland is recognized for five minutes.</t>
   </si>
   <si>
+    <t>Edwards</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Edwards. Thank you. I have waited six years on this Committee to hear that, and I want to thank our witnesses and obviously our Chairpersons and Ranking Members.    You know, I remember when I first came on to the Committee that it was in the throes, I guess the summer of--I don't know--2008, and it was at a time when there was great consternation about the satellite programs, the management of those, the relationship between NASA and NOAA and DoD, and I think that we have come--we heard from GAO at that time and I think we have come a long way since then, and so I really wanted to be able to salute NASA and NOAA for, you know, after some period of time in fits and starts figuring out the working relationship using the best capabilities of NASA and NOAA to make sure that we could try to get this program back on track.    As the GAO has indicated, you know, we still have some challenges obviously and possibilities for gaps in coverage, and so that remains a concern for the Committee in addition to the predicted cost. I think we started out with the idea that we were going to have six satellites. Now we are at two. And so this has been a really difficult thing.    I want to also acknowledge that today in our audience are a group of students from the University of Maryland in College Park, which is the home to NOAA's Center for Weather and Climate Prediction. The home for NOAA is actually in Suitland, Maryland, right down the street from my office. I spent a lot of time there. I think I did go to observe the NPP launch, and thankfully, rather than just being an experimental platform, it is usable and operational, because I think that helps in the consideration of this discussion.    I guess the question I have actually has to do with the gaps in coverage, and I understand, you know, the imprecision with which one can predict whether there is going to be a gap or not, but I wonder, Dr. Volz, if you could respond to the idea that--of what NOAA's current gap assessment is, and it is also my understanding that NOAA is estimating a longer life expectancy for NPP than before because of its strong performance to date and, you know, so what is your anticipation of the operational period for NPP and what activities are being undertaken to ensure NPP's longevity?</t>
   </si>
   <si>
@@ -593,6 +641,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. All right. I would like to recognize the gentleman from Texas, Dr. Babin, for five minutes.</t>
+  </si>
+  <si>
+    <t>Babin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Babin. Thank you, Mr. Chairman.    Dr. Volz, in April of 2013, NOAA removed funding for three years of operations at the end of JPSS missions to keep the lifecycle cost of the program around $11 billion, two-part question. Even though JPSS-2 will be operational through 2028, operations, I see, are only funded through 2025. Is this a gimmick to hide the true cost of the program?</t>
@@ -1010,7 +1061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,7 +1069,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,4805 +1091,5498 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G46" t="s">
+        <v>53</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G51" t="s">
+        <v>35</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
+        <v>35</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G59" t="s">
+        <v>35</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>90</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>93</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>93</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>93</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>90</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>57</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G79" t="s">
+        <v>53</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G95" t="s">
+        <v>53</v>
+      </c>
       <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>57</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>57</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>57</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G107" t="s">
+        <v>35</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>31</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
       <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>31</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G116" t="s">
+        <v>19</v>
+      </c>
       <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G118" t="s">
+        <v>19</v>
+      </c>
       <c r="H118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G120" t="s">
+        <v>19</v>
+      </c>
       <c r="H120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>28</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G122" t="s">
+        <v>19</v>
+      </c>
       <c r="H122" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G124" t="s">
+        <v>19</v>
+      </c>
       <c r="H124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G126" t="s">
+        <v>24</v>
+      </c>
       <c r="H126" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G128" t="s">
+        <v>24</v>
+      </c>
       <c r="H128" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>31</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G130" t="s">
+        <v>24</v>
+      </c>
       <c r="H130" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>25</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G131" t="s">
+        <v>35</v>
+      </c>
       <c r="H131" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G132" t="s">
+        <v>24</v>
+      </c>
       <c r="H132" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>93</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>25</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G135" t="s">
+        <v>35</v>
+      </c>
       <c r="H135" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>93</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>90</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>31</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>90</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>28</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>90</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>57</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>90</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>25</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G146" t="s">
+        <v>35</v>
+      </c>
       <c r="H146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>25</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="G148" t="s">
+        <v>35</v>
+      </c>
       <c r="H148" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I148" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>31</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>31</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>31</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>31</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>31</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G159" t="s">
+        <v>53</v>
+      </c>
       <c r="H159" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I159" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>31</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G163" t="s">
+        <v>24</v>
+      </c>
       <c r="H163" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I163" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>31</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G165" t="s">
+        <v>24</v>
+      </c>
       <c r="H165" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I165" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>31</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G167" t="s">
+        <v>24</v>
+      </c>
       <c r="H167" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I167" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G168" t="s">
+        <v>53</v>
+      </c>
       <c r="H168" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I168" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>31</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G170" t="s">
+        <v>24</v>
+      </c>
       <c r="H170" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I170" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>28</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G172" t="s">
+        <v>24</v>
+      </c>
       <c r="H172" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I172" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>90</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>90</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>28</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>90</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>209</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>31</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>209</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>31</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>209</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>31</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>209</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>11</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>31</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>209</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
+        <v>28</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G189" t="s">
+        <v>209</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>57</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>209</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>31</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>209</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>31</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>31</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>31</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>13</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>215</v>
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>31</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93883.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93883.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Loudermilk</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Beyer</t>
   </si>
   <si>
@@ -173,6 +182,9 @@
   </si>
   <si>
     <t>400285</t>
+  </si>
+  <si>
+    <t>Chair</t>
   </si>
   <si>
     <t>Murphy</t>
@@ -1061,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,7 +1081,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,5495 +1106,5788 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>34</v>
       </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H44" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H56" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>31</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H58" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>90</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>93</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>97</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>31</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>93</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>97</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>93</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>97</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>90</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>94</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>90</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>94</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>57</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>61</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>90</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>34</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G79" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H79" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>31</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G95" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H95" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I95" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>31</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>57</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>61</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>57</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>61</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>31</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
-        <v>57</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>61</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>31</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>34</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>15</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>31</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>34</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I114" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>31</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>34</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G116" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I116" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>31</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>34</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G118" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H118" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I118" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s">
-        <v>31</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>34</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>31</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H122" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I122" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>31</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>34</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G124" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H124" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I124" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G126" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H126" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I126" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" t="s">
-        <v>31</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>34</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G128" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H128" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I128" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" t="s">
-        <v>31</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>34</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G130" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H130" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I130" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H131" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I131" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G132" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H132" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I132" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="s">
-        <v>93</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>97</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H135" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I135" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s">
-        <v>93</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>97</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" t="s">
-        <v>13</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" t="s">
-        <v>90</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>94</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" t="s">
-        <v>31</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>34</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" t="s">
-        <v>90</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>94</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" t="s">
-        <v>28</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>31</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" t="s">
-        <v>90</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>94</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" t="s">
-        <v>57</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>61</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" t="s">
-        <v>90</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>94</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" t="s">
-        <v>13</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H146" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I146" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" t="s">
-        <v>13</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H148" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I148" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="J148" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" t="s">
-        <v>13</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" t="s">
-        <v>31</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>34</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
-      </c>
-      <c r="G151" t="s">
-        <v>13</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" t="s">
-        <v>31</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>34</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
-      </c>
-      <c r="G153" t="s">
-        <v>13</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" t="s">
-        <v>31</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>34</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" t="s">
-        <v>13</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" t="s">
-        <v>31</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>34</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
-      </c>
-      <c r="G157" t="s">
-        <v>13</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" t="s">
-        <v>31</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>34</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G159" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H159" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I159" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J159" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" t="s">
-        <v>13</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" t="s">
-        <v>31</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>34</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" t="s">
-        <v>13</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G163" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H163" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I163" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J163" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" t="s">
-        <v>31</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>34</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G165" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H165" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I165" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J165" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" t="s">
-        <v>31</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>34</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G167" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H167" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I167" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J167" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G168" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H168" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I168" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J168" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" t="s">
-        <v>31</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>34</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G170" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H170" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I170" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J170" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171" t="s">
-        <v>28</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>31</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G172" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H172" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I172" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" t="s">
-        <v>90</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>94</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" t="s">
-        <v>13</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>12</v>
-      </c>
-      <c r="G175" t="s">
-        <v>90</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>94</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" t="s">
-        <v>28</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>31</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177" t="s">
-        <v>90</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>94</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" t="s">
-        <v>13</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
-      </c>
-      <c r="G179" t="s">
-        <v>209</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>213</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" t="s">
-        <v>31</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>34</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
-      </c>
-      <c r="G181" t="s">
-        <v>209</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>213</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" t="s">
-        <v>31</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>34</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
-      </c>
-      <c r="G183" t="s">
-        <v>209</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>213</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" t="s">
-        <v>31</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>34</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" t="s">
-        <v>209</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>213</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186" t="s">
-        <v>31</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>34</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
-      </c>
-      <c r="G187" t="s">
-        <v>209</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>213</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" t="s">
-        <v>28</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>31</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189" t="s">
-        <v>209</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>213</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" t="s">
-        <v>57</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>61</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" t="s">
-        <v>209</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>213</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" t="s">
-        <v>31</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>34</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" t="s">
-        <v>209</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>213</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
-      </c>
-      <c r="G194" t="s">
-        <v>31</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>34</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195" t="s">
-        <v>209</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>213</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
-      </c>
-      <c r="G196" t="s">
-        <v>13</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>14</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197" t="s">
-        <v>31</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>34</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
-      </c>
-      <c r="G198" t="s">
-        <v>13</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
-      </c>
-      <c r="G199" t="s">
-        <v>31</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>34</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
-      </c>
-      <c r="G200" t="s">
-        <v>13</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
-      </c>
-      <c r="G201" t="s">
-        <v>31</v>
-      </c>
-      <c r="H201" t="s"/>
-      <c r="I201" t="s">
-        <v>232</v>
+        <v>13</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
+        <v>34</v>
+      </c>
+      <c r="I201" t="s"/>
+      <c r="J201" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
